--- a/src/test/resources/test_data.xlsx
+++ b/src/test/resources/test_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sami\IdeaProjects\winterweekendselenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FAB92B-8EC5-40F3-8A4C-F1EDDEB92F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB509949-F276-445E-B212-C6E8742CFDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{737F456A-BA07-46AB-AAA2-7DD47C4B7DA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{737F456A-BA07-46AB-AAA2-7DD47C4B7DA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginValidEmailInvalidPass" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginInvalidEmailValidPass" sheetId="2" r:id="rId2"/>
+    <sheet name="testAddItemToCart" sheetId="3" r:id="rId1"/>
+    <sheet name="LoginValidEmailInvalidPass" sheetId="1" r:id="rId2"/>
+    <sheet name="LoginInvalidEmailValidPass" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>User</t>
   </si>
@@ -111,6 +112,12 @@
   </si>
   <si>
     <t>aghilesham20@yahoo.cm</t>
+  </si>
+  <si>
+    <t>expected_message</t>
+  </si>
+  <si>
+    <t>Product successfully added to your shopping cart</t>
   </si>
 </sst>
 </file>
@@ -475,10 +482,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B85C5A3-78B0-461E-A595-82D47752DD98}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DD4A45-1385-4380-889D-88CF15B37225}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -584,7 +616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620C28E2-708E-44BB-B761-63885062F8E9}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/src/test/resources/test_data.xlsx
+++ b/src/test/resources/test_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sami\IdeaProjects\winterweekendselenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB509949-F276-445E-B212-C6E8742CFDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1920CB-973E-4D18-9A0C-FFCBBF2402FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{737F456A-BA07-46AB-AAA2-7DD47C4B7DA6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{737F456A-BA07-46AB-AAA2-7DD47C4B7DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="testAddItemToCart" sheetId="3" r:id="rId1"/>
-    <sheet name="LoginValidEmailInvalidPass" sheetId="1" r:id="rId2"/>
-    <sheet name="LoginInvalidEmailValidPass" sheetId="2" r:id="rId3"/>
+    <sheet name="testAddItemToCartModel" sheetId="4" r:id="rId2"/>
+    <sheet name="LoginValidEmailInvalidPass" sheetId="1" r:id="rId3"/>
+    <sheet name="LoginInvalidEmailValidPass" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>User</t>
   </si>
@@ -118,6 +119,24 @@
   </si>
   <si>
     <t>Product successfully added to your shopping cart</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -162,12 +181,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B85C5A3-78B0-461E-A595-82D47752DD98}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +527,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169CEB81-8F89-4B20-92BE-1BC15F1D969A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DD4A45-1385-4380-889D-88CF15B37225}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -616,7 +679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620C28E2-708E-44BB-B761-63885062F8E9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
